--- a/SuppXLS/Scen_UpdateGeologicalStorage.xlsx
+++ b/SuppXLS/Scen_UpdateGeologicalStorage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF62716-2F00-4325-94E9-85EE68F3F5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6203E60-C7E4-4C9F-8374-6F3BD04EC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12072" xr2:uid="{A8DB3A7E-B09C-49B7-96A8-B31B03D81B01}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12120" xr2:uid="{A8DB3A7E-B09C-49B7-96A8-B31B03D81B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,7 @@
         <v>8</v>
       </c>
       <c r="P13">
-        <f>P12/10</f>
-        <v>600000000</v>
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UpdateGeologicalStorage.xlsx
+++ b/SuppXLS/Scen_UpdateGeologicalStorage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6203E60-C7E4-4C9F-8374-6F3BD04EC409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549D8690-677D-45CC-845B-AE06A2829D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="23040" windowHeight="12120" xr2:uid="{A8DB3A7E-B09C-49B7-96A8-B31B03D81B01}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A8DB3A7E-B09C-49B7-96A8-B31B03D81B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,20 +420,20 @@
   <dimension ref="K10:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="11:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="11:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="11:16" x14ac:dyDescent="0.35">
       <c r="K11" t="s">
         <v>1</v>
       </c>
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="11:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="11:16" x14ac:dyDescent="0.35">
       <c r="L12" s="1" t="s">
         <v>7</v>
       </c>
@@ -466,7 +466,7 @@
         <v>6000000000</v>
       </c>
     </row>
-    <row r="13" spans="11:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="11:16" x14ac:dyDescent="0.35">
       <c r="L13" t="s">
         <v>9</v>
       </c>
@@ -474,7 +474,8 @@
         <v>8</v>
       </c>
       <c r="P13">
-        <v>1000000</v>
+        <f>99999*2</f>
+        <v>199998</v>
       </c>
     </row>
   </sheetData>
